--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.075182666666667</v>
+        <v>14.69933033333333</v>
       </c>
       <c r="H2">
-        <v>27.225548</v>
+        <v>44.09799099999999</v>
       </c>
       <c r="I2">
-        <v>0.3406595837592796</v>
+        <v>0.4093049576597427</v>
       </c>
       <c r="J2">
-        <v>0.3406595837592796</v>
+        <v>0.4093049576597427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.789758</v>
+        <v>39.62362533333334</v>
       </c>
       <c r="N2">
-        <v>92.369274</v>
+        <v>118.870876</v>
       </c>
       <c r="O2">
-        <v>0.5225738279799486</v>
+        <v>0.862331223864382</v>
       </c>
       <c r="P2">
-        <v>0.5225738279799483</v>
+        <v>0.8623312238643819</v>
       </c>
       <c r="Q2">
-        <v>279.4226781124614</v>
+        <v>582.4407577789017</v>
       </c>
       <c r="R2">
-        <v>2514.804103012152</v>
+        <v>5241.966820010116</v>
       </c>
       <c r="S2">
-        <v>0.1780197827231426</v>
+        <v>0.352956445072485</v>
       </c>
       <c r="T2">
-        <v>0.1780197827231426</v>
+        <v>0.3529564450724849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.075182666666667</v>
+        <v>14.69933033333333</v>
       </c>
       <c r="H3">
-        <v>27.225548</v>
+        <v>44.09799099999999</v>
       </c>
       <c r="I3">
-        <v>0.3406595837592796</v>
+        <v>0.4093049576597427</v>
       </c>
       <c r="J3">
-        <v>0.3406595837592796</v>
+        <v>0.4093049576597427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.742361000000001</v>
       </c>
       <c r="O3">
-        <v>0.03814451759567488</v>
+        <v>0.04891146266025228</v>
       </c>
       <c r="P3">
-        <v>0.03814451759567487</v>
+        <v>0.04891146266025227</v>
       </c>
       <c r="Q3">
-        <v>20.39605255986978</v>
+        <v>33.03606385519456</v>
       </c>
       <c r="R3">
-        <v>183.564473038828</v>
+        <v>297.324574696751</v>
       </c>
       <c r="S3">
-        <v>0.01299429548684112</v>
+        <v>0.02001970415323064</v>
       </c>
       <c r="T3">
-        <v>0.01299429548684112</v>
+        <v>0.02001970415323064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.075182666666667</v>
+        <v>14.69933033333333</v>
       </c>
       <c r="H4">
-        <v>27.225548</v>
+        <v>44.09799099999999</v>
       </c>
       <c r="I4">
-        <v>0.3406595837592796</v>
+        <v>0.4093049576597427</v>
       </c>
       <c r="J4">
-        <v>0.3406595837592796</v>
+        <v>0.4093049576597427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8899283333333333</v>
+        <v>0.2964306666666667</v>
       </c>
       <c r="N4">
-        <v>2.669785</v>
+        <v>0.889292</v>
       </c>
       <c r="O4">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992269</v>
       </c>
       <c r="P4">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992268</v>
       </c>
       <c r="Q4">
-        <v>8.076262185242221</v>
+        <v>4.357332290263555</v>
       </c>
       <c r="R4">
-        <v>72.68635966718</v>
+        <v>39.21599061237199</v>
       </c>
       <c r="S4">
-        <v>0.00514537491782717</v>
+        <v>0.002640523511843222</v>
       </c>
       <c r="T4">
-        <v>0.005145374917827169</v>
+        <v>0.002640523511843222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.075182666666667</v>
+        <v>14.69933033333333</v>
       </c>
       <c r="H5">
-        <v>27.225548</v>
+        <v>44.09799099999999</v>
       </c>
       <c r="I5">
-        <v>0.3406595837592796</v>
+        <v>0.4093049576597427</v>
       </c>
       <c r="J5">
-        <v>0.3406595837592796</v>
+        <v>0.4093049576597427</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.079867</v>
+        <v>2.447182</v>
       </c>
       <c r="N5">
-        <v>69.23960099999999</v>
+        <v>7.341546</v>
       </c>
       <c r="O5">
-        <v>0.391719040060597</v>
+        <v>0.05325816179933475</v>
       </c>
       <c r="P5">
-        <v>0.3917190400605969</v>
+        <v>0.05325816179933474</v>
       </c>
       <c r="Q5">
-        <v>209.454008947372</v>
+        <v>35.97193660378733</v>
       </c>
       <c r="R5">
-        <v>1885.086080526348</v>
+        <v>323.747429434086</v>
       </c>
       <c r="S5">
-        <v>0.1334428451376276</v>
+        <v>0.02179882966031244</v>
       </c>
       <c r="T5">
-        <v>0.1334428451376275</v>
+        <v>0.02179882966031243</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.075182666666667</v>
+        <v>14.69933033333333</v>
       </c>
       <c r="H6">
-        <v>27.225548</v>
+        <v>44.09799099999999</v>
       </c>
       <c r="I6">
-        <v>0.3406595837592796</v>
+        <v>0.4093049576597427</v>
       </c>
       <c r="J6">
-        <v>0.3406595837592796</v>
+        <v>0.4093049576597427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2964566666666666</v>
+        <v>0.4200656666666667</v>
       </c>
       <c r="N6">
-        <v>0.88937</v>
+        <v>1.260197</v>
       </c>
       <c r="O6">
-        <v>0.005031559362375489</v>
+        <v>0.009141913123616776</v>
       </c>
       <c r="P6">
-        <v>0.005031559362375487</v>
+        <v>0.009141913123616775</v>
       </c>
       <c r="Q6">
-        <v>2.690398402751111</v>
+        <v>6.174683996025221</v>
       </c>
       <c r="R6">
-        <v>24.21358562476</v>
+        <v>55.57215596422699</v>
       </c>
       <c r="S6">
-        <v>0.00171404891804694</v>
+        <v>0.00374183036399101</v>
       </c>
       <c r="T6">
-        <v>0.00171404891804694</v>
+        <v>0.00374183036399101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.075182666666667</v>
+        <v>14.69933033333333</v>
       </c>
       <c r="H7">
-        <v>27.225548</v>
+        <v>44.09799099999999</v>
       </c>
       <c r="I7">
-        <v>0.3406595837592796</v>
+        <v>0.4093049576597427</v>
       </c>
       <c r="J7">
-        <v>0.3406595837592796</v>
+        <v>0.4093049576597427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.615977666666667</v>
+        <v>0.9146693333333333</v>
       </c>
       <c r="N7">
-        <v>4.847932999999999</v>
+        <v>2.744008</v>
       </c>
       <c r="O7">
-        <v>0.02742690069860585</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="P7">
-        <v>0.02742690069860584</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="Q7">
-        <v>14.66529251025378</v>
+        <v>13.44502667643644</v>
       </c>
       <c r="R7">
-        <v>131.987632592284</v>
+        <v>121.005240087928</v>
       </c>
       <c r="S7">
-        <v>0.009343236575794164</v>
+        <v>0.008147624897880446</v>
       </c>
       <c r="T7">
-        <v>0.00934323657579416</v>
+        <v>0.008147624897880444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.390888</v>
       </c>
       <c r="I8">
-        <v>0.1300159534334917</v>
+        <v>0.09644525468035788</v>
       </c>
       <c r="J8">
-        <v>0.1300159534334917</v>
+        <v>0.09644525468035786</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.789758</v>
+        <v>39.62362533333334</v>
       </c>
       <c r="N8">
-        <v>92.369274</v>
+        <v>118.870876</v>
       </c>
       <c r="O8">
-        <v>0.5225738279799486</v>
+        <v>0.862331223864382</v>
       </c>
       <c r="P8">
-        <v>0.5225738279799483</v>
+        <v>0.8623312238643819</v>
       </c>
       <c r="Q8">
-        <v>106.6443089750347</v>
+        <v>137.2415509975431</v>
       </c>
       <c r="R8">
-        <v>959.798780775312</v>
+        <v>1235.173958977888</v>
       </c>
       <c r="S8">
-        <v>0.06794293448420249</v>
+        <v>0.08316775450442503</v>
       </c>
       <c r="T8">
-        <v>0.06794293448420247</v>
+        <v>0.083167754504425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.390888</v>
       </c>
       <c r="I9">
-        <v>0.1300159534334917</v>
+        <v>0.09644525468035788</v>
       </c>
       <c r="J9">
-        <v>0.1300159534334917</v>
+        <v>0.09644525468035786</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>6.742361000000001</v>
       </c>
       <c r="O9">
-        <v>0.03814451759567488</v>
+        <v>0.04891146266025228</v>
       </c>
       <c r="P9">
-        <v>0.03814451759567487</v>
+        <v>0.04891146266025227</v>
       </c>
       <c r="Q9">
         <v>7.784346445174223</v>
@@ -1013,10 +1013,10 @@
         <v>70.05911800656801</v>
       </c>
       <c r="S9">
-        <v>0.00495939582346227</v>
+        <v>0.004717278473056846</v>
       </c>
       <c r="T9">
-        <v>0.004959395823462268</v>
+        <v>0.004717278473056845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.390888</v>
       </c>
       <c r="I10">
-        <v>0.1300159534334917</v>
+        <v>0.09644525468035788</v>
       </c>
       <c r="J10">
-        <v>0.1300159534334917</v>
+        <v>0.09644525468035786</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8899283333333333</v>
+        <v>0.2964306666666667</v>
       </c>
       <c r="N10">
-        <v>2.669785</v>
+        <v>0.889292</v>
       </c>
       <c r="O10">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992269</v>
       </c>
       <c r="P10">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992268</v>
       </c>
       <c r="Q10">
-        <v>3.082381879897778</v>
+        <v>1.026725952366222</v>
       </c>
       <c r="R10">
-        <v>27.74143691908</v>
+        <v>9.240533571296</v>
       </c>
       <c r="S10">
-        <v>0.001963781022484885</v>
+        <v>0.0006221912484160471</v>
       </c>
       <c r="T10">
-        <v>0.001963781022484885</v>
+        <v>0.0006221912484160469</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.390888</v>
       </c>
       <c r="I11">
-        <v>0.1300159534334917</v>
+        <v>0.09644525468035788</v>
       </c>
       <c r="J11">
-        <v>0.1300159534334917</v>
+        <v>0.09644525468035786</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.079867</v>
+        <v>2.447182</v>
       </c>
       <c r="N11">
-        <v>69.23960099999999</v>
+        <v>7.341546</v>
       </c>
       <c r="O11">
-        <v>0.391719040060597</v>
+        <v>0.05325816179933475</v>
       </c>
       <c r="P11">
-        <v>0.3917190400605969</v>
+        <v>0.05325816179933474</v>
       </c>
       <c r="Q11">
-        <v>79.94010435063198</v>
+        <v>8.476131359205334</v>
       </c>
       <c r="R11">
-        <v>719.4609391556879</v>
+        <v>76.285182232848</v>
       </c>
       <c r="S11">
-        <v>0.05092972447153066</v>
+        <v>0.005136496978544547</v>
       </c>
       <c r="T11">
-        <v>0.05092972447153064</v>
+        <v>0.005136496978544546</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.390888</v>
       </c>
       <c r="I12">
-        <v>0.1300159534334917</v>
+        <v>0.09644525468035788</v>
       </c>
       <c r="J12">
-        <v>0.1300159534334917</v>
+        <v>0.09644525468035786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2964566666666666</v>
+        <v>0.4200656666666667</v>
       </c>
       <c r="N12">
-        <v>0.88937</v>
+        <v>1.260197</v>
       </c>
       <c r="O12">
-        <v>0.005031559362375489</v>
+        <v>0.009141913123616776</v>
       </c>
       <c r="P12">
-        <v>0.005031559362375487</v>
+        <v>0.009141913123616775</v>
       </c>
       <c r="Q12">
-        <v>1.026816006728889</v>
+        <v>1.454951764992889</v>
       </c>
       <c r="R12">
-        <v>9.241344060559999</v>
+        <v>13.094565884936</v>
       </c>
       <c r="S12">
-        <v>0.0006541829877564607</v>
+        <v>0.000881694139472926</v>
       </c>
       <c r="T12">
-        <v>0.0006541829877564605</v>
+        <v>0.0008816941394729256</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.390888</v>
       </c>
       <c r="I13">
-        <v>0.1300159534334917</v>
+        <v>0.09644525468035788</v>
       </c>
       <c r="J13">
-        <v>0.1300159534334917</v>
+        <v>0.09644525468035786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.615977666666667</v>
+        <v>0.9146693333333333</v>
       </c>
       <c r="N13">
-        <v>4.847932999999999</v>
+        <v>2.744008</v>
       </c>
       <c r="O13">
-        <v>0.02742690069860585</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="P13">
-        <v>0.02742690069860584</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="Q13">
-        <v>5.597147648278222</v>
+        <v>3.168075533233778</v>
       </c>
       <c r="R13">
-        <v>50.374328834504</v>
+        <v>28.512679799104</v>
       </c>
       <c r="S13">
-        <v>0.00356593464405494</v>
+        <v>0.001919839336442496</v>
       </c>
       <c r="T13">
-        <v>0.003565934644054938</v>
+        <v>0.001919839336442496</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.804241333333333</v>
+        <v>3.397405666666666</v>
       </c>
       <c r="H14">
-        <v>5.412724</v>
+        <v>10.192217</v>
       </c>
       <c r="I14">
-        <v>0.06772669203366863</v>
+        <v>0.09460124720066976</v>
       </c>
       <c r="J14">
-        <v>0.06772669203366861</v>
+        <v>0.09460124720066974</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.789758</v>
+        <v>39.62362533333334</v>
       </c>
       <c r="N14">
-        <v>92.369274</v>
+        <v>118.870876</v>
       </c>
       <c r="O14">
-        <v>0.5225738279799486</v>
+        <v>0.862331223864382</v>
       </c>
       <c r="P14">
-        <v>0.5225738279799483</v>
+        <v>0.8623312238643819</v>
       </c>
       <c r="Q14">
-        <v>55.55215402693067</v>
+        <v>134.6175292413436</v>
       </c>
       <c r="R14">
-        <v>499.969386242376</v>
+        <v>1211.557763172092</v>
       </c>
       <c r="S14">
-        <v>0.03539219671245331</v>
+        <v>0.0815776092776505</v>
       </c>
       <c r="T14">
-        <v>0.03539219671245328</v>
+        <v>0.08157760927765047</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.804241333333333</v>
+        <v>3.397405666666666</v>
       </c>
       <c r="H15">
-        <v>5.412724</v>
+        <v>10.192217</v>
       </c>
       <c r="I15">
-        <v>0.06772669203366863</v>
+        <v>0.09460124720066976</v>
       </c>
       <c r="J15">
-        <v>0.06772669203366861</v>
+        <v>0.09460124720066974</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>6.742361000000001</v>
       </c>
       <c r="O15">
-        <v>0.03814451759567488</v>
+        <v>0.04891146266025228</v>
       </c>
       <c r="P15">
-        <v>0.03814451759567487</v>
+        <v>0.04891146266025227</v>
       </c>
       <c r="Q15">
-        <v>4.054948800151556</v>
+        <v>7.635511822704111</v>
       </c>
       <c r="R15">
-        <v>36.49453920136401</v>
+        <v>68.719606404337</v>
       </c>
       <c r="S15">
-        <v>0.002583401995975127</v>
+        <v>0.004627085370068854</v>
       </c>
       <c r="T15">
-        <v>0.002583401995975125</v>
+        <v>0.004627085370068853</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.804241333333333</v>
+        <v>3.397405666666666</v>
       </c>
       <c r="H16">
-        <v>5.412724</v>
+        <v>10.192217</v>
       </c>
       <c r="I16">
-        <v>0.06772669203366863</v>
+        <v>0.09460124720066976</v>
       </c>
       <c r="J16">
-        <v>0.06772669203366861</v>
+        <v>0.09460124720066974</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8899283333333333</v>
+        <v>0.2964306666666667</v>
       </c>
       <c r="N16">
-        <v>2.669785</v>
+        <v>0.889292</v>
       </c>
       <c r="O16">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992269</v>
       </c>
       <c r="P16">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992268</v>
       </c>
       <c r="Q16">
-        <v>1.605645482704444</v>
+        <v>1.007095226707111</v>
       </c>
       <c r="R16">
-        <v>14.45080934434</v>
+        <v>9.063857040363999</v>
       </c>
       <c r="S16">
-        <v>0.001022954406894625</v>
+        <v>0.0006102951181224604</v>
       </c>
       <c r="T16">
-        <v>0.001022954406894625</v>
+        <v>0.0006102951181224603</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.804241333333333</v>
+        <v>3.397405666666666</v>
       </c>
       <c r="H17">
-        <v>5.412724</v>
+        <v>10.192217</v>
       </c>
       <c r="I17">
-        <v>0.06772669203366863</v>
+        <v>0.09460124720066976</v>
       </c>
       <c r="J17">
-        <v>0.06772669203366861</v>
+        <v>0.09460124720066974</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.079867</v>
+        <v>2.447182</v>
       </c>
       <c r="N17">
-        <v>69.23960099999999</v>
+        <v>7.341546</v>
       </c>
       <c r="O17">
-        <v>0.391719040060597</v>
+        <v>0.05325816179933475</v>
       </c>
       <c r="P17">
-        <v>0.3917190400605969</v>
+        <v>0.05325816179933474</v>
       </c>
       <c r="Q17">
-        <v>41.641650009236</v>
+        <v>8.314069994164667</v>
       </c>
       <c r="R17">
-        <v>374.774850083124</v>
+        <v>74.82662994748199</v>
       </c>
       <c r="S17">
-        <v>0.02652983478990836</v>
+        <v>0.005038288529832133</v>
       </c>
       <c r="T17">
-        <v>0.02652983478990835</v>
+        <v>0.005038288529832132</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.804241333333333</v>
+        <v>3.397405666666666</v>
       </c>
       <c r="H18">
-        <v>5.412724</v>
+        <v>10.192217</v>
       </c>
       <c r="I18">
-        <v>0.06772669203366863</v>
+        <v>0.09460124720066976</v>
       </c>
       <c r="J18">
-        <v>0.06772669203366861</v>
+        <v>0.09460124720066974</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2964566666666666</v>
+        <v>0.4200656666666667</v>
       </c>
       <c r="N18">
-        <v>0.88937</v>
+        <v>1.260197</v>
       </c>
       <c r="O18">
-        <v>0.005031559362375489</v>
+        <v>0.009141913123616776</v>
       </c>
       <c r="P18">
-        <v>0.005031559362375487</v>
+        <v>0.009141913123616775</v>
       </c>
       <c r="Q18">
-        <v>0.5348793715422222</v>
+        <v>1.427133476305444</v>
       </c>
       <c r="R18">
-        <v>4.81391434388</v>
+        <v>12.844201286749</v>
       </c>
       <c r="S18">
-        <v>0.0003407708713847268</v>
+        <v>0.0008648363832943176</v>
       </c>
       <c r="T18">
-        <v>0.0003407708713847266</v>
+        <v>0.0008648363832943174</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.804241333333333</v>
+        <v>3.397405666666666</v>
       </c>
       <c r="H19">
-        <v>5.412724</v>
+        <v>10.192217</v>
       </c>
       <c r="I19">
-        <v>0.06772669203366863</v>
+        <v>0.09460124720066976</v>
       </c>
       <c r="J19">
-        <v>0.06772669203366861</v>
+        <v>0.09460124720066974</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.615977666666667</v>
+        <v>0.9146693333333333</v>
       </c>
       <c r="N19">
-        <v>4.847932999999999</v>
+        <v>2.744008</v>
       </c>
       <c r="O19">
-        <v>0.02742690069860585</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="P19">
-        <v>0.02742690069860584</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="Q19">
-        <v>2.915613699943556</v>
+        <v>3.107502776192888</v>
       </c>
       <c r="R19">
-        <v>26.240523299492</v>
+        <v>27.967524985736</v>
       </c>
       <c r="S19">
-        <v>0.00185753325705249</v>
+        <v>0.001883132521701507</v>
       </c>
       <c r="T19">
-        <v>0.001857533257052489</v>
+        <v>0.001883132521701506</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.474075333333333</v>
+        <v>0.442328</v>
       </c>
       <c r="H20">
-        <v>7.422226</v>
+        <v>1.326984</v>
       </c>
       <c r="I20">
-        <v>0.0928705794912669</v>
+        <v>0.01231668648885062</v>
       </c>
       <c r="J20">
-        <v>0.0928705794912669</v>
+        <v>0.01231668648885061</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.789758</v>
+        <v>39.62362533333334</v>
       </c>
       <c r="N20">
-        <v>92.369274</v>
+        <v>118.870876</v>
       </c>
       <c r="O20">
-        <v>0.5225738279799486</v>
+        <v>0.862331223864382</v>
       </c>
       <c r="P20">
-        <v>0.5225738279799483</v>
+        <v>0.8623312238643819</v>
       </c>
       <c r="Q20">
-        <v>76.17618078710268</v>
+        <v>17.52663894644267</v>
       </c>
       <c r="R20">
-        <v>685.585627083924</v>
+        <v>157.739750517984</v>
       </c>
       <c r="S20">
-        <v>0.04853173423146744</v>
+        <v>0.01062106333388445</v>
       </c>
       <c r="T20">
-        <v>0.04853173423146743</v>
+        <v>0.01062106333388445</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.474075333333333</v>
+        <v>0.442328</v>
       </c>
       <c r="H21">
-        <v>7.422226</v>
+        <v>1.326984</v>
       </c>
       <c r="I21">
-        <v>0.0928705794912669</v>
+        <v>0.01231668648885062</v>
       </c>
       <c r="J21">
-        <v>0.0928705794912669</v>
+        <v>0.01231668648885061</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>6.742361000000001</v>
       </c>
       <c r="O21">
-        <v>0.03814451759567488</v>
+        <v>0.04891146266025228</v>
       </c>
       <c r="P21">
-        <v>0.03814451759567487</v>
+        <v>0.04891146266025227</v>
       </c>
       <c r="Q21">
-        <v>5.560369679509557</v>
+        <v>0.9941116854693335</v>
       </c>
       <c r="R21">
-        <v>50.04332711558601</v>
+        <v>8.947005169224001</v>
       </c>
       <c r="S21">
-        <v>0.003542503453525153</v>
+        <v>0.0006024271512974507</v>
       </c>
       <c r="T21">
-        <v>0.003542503453525152</v>
+        <v>0.0006024271512974505</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.474075333333333</v>
+        <v>0.442328</v>
       </c>
       <c r="H22">
-        <v>7.422226</v>
+        <v>1.326984</v>
       </c>
       <c r="I22">
-        <v>0.0928705794912669</v>
+        <v>0.01231668648885062</v>
       </c>
       <c r="J22">
-        <v>0.0928705794912669</v>
+        <v>0.01231668648885061</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.8899283333333333</v>
+        <v>0.2964306666666667</v>
       </c>
       <c r="N22">
-        <v>2.669785</v>
+        <v>0.889292</v>
       </c>
       <c r="O22">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992269</v>
       </c>
       <c r="P22">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992268</v>
       </c>
       <c r="Q22">
-        <v>2.201749737934445</v>
+        <v>0.1311195839253333</v>
       </c>
       <c r="R22">
-        <v>19.81574764141</v>
+        <v>1.180076255328</v>
       </c>
       <c r="S22">
-        <v>0.001402731562826382</v>
+        <v>7.945787035603884E-05</v>
       </c>
       <c r="T22">
-        <v>0.001402731562826382</v>
+        <v>7.945787035603882E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.474075333333333</v>
+        <v>0.442328</v>
       </c>
       <c r="H23">
-        <v>7.422226</v>
+        <v>1.326984</v>
       </c>
       <c r="I23">
-        <v>0.0928705794912669</v>
+        <v>0.01231668648885062</v>
       </c>
       <c r="J23">
-        <v>0.0928705794912669</v>
+        <v>0.01231668648885061</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.079867</v>
+        <v>2.447182</v>
       </c>
       <c r="N23">
-        <v>69.23960099999999</v>
+        <v>7.341546</v>
       </c>
       <c r="O23">
-        <v>0.391719040060597</v>
+        <v>0.05325816179933475</v>
       </c>
       <c r="P23">
-        <v>0.3917190400605969</v>
+        <v>0.05325816179933474</v>
       </c>
       <c r="Q23">
-        <v>57.101329641314</v>
+        <v>1.082457119696</v>
       </c>
       <c r="R23">
-        <v>513.911966771826</v>
+        <v>9.742114077264</v>
       </c>
       <c r="S23">
-        <v>0.03637917424819044</v>
+        <v>0.0006559640818548864</v>
       </c>
       <c r="T23">
-        <v>0.03637917424819043</v>
+        <v>0.0006559640818548861</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.474075333333333</v>
+        <v>0.442328</v>
       </c>
       <c r="H24">
-        <v>7.422226</v>
+        <v>1.326984</v>
       </c>
       <c r="I24">
-        <v>0.0928705794912669</v>
+        <v>0.01231668648885062</v>
       </c>
       <c r="J24">
-        <v>0.0928705794912669</v>
+        <v>0.01231668648885061</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2964566666666666</v>
+        <v>0.4200656666666667</v>
       </c>
       <c r="N24">
-        <v>0.88937</v>
+        <v>1.260197</v>
       </c>
       <c r="O24">
-        <v>0.005031559362375489</v>
+        <v>0.009141913123616776</v>
       </c>
       <c r="P24">
-        <v>0.005031559362375487</v>
+        <v>0.009141913123616775</v>
       </c>
       <c r="Q24">
-        <v>0.7334561264022222</v>
+        <v>0.1858068062053333</v>
       </c>
       <c r="R24">
-        <v>6.60110513762</v>
+        <v>1.672261255848</v>
       </c>
       <c r="S24">
-        <v>0.000467283833728521</v>
+        <v>0.0001125980778518969</v>
       </c>
       <c r="T24">
-        <v>0.0004672838337285208</v>
+        <v>0.0001125980778518969</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.474075333333333</v>
+        <v>0.442328</v>
       </c>
       <c r="H25">
-        <v>7.422226</v>
+        <v>1.326984</v>
       </c>
       <c r="I25">
-        <v>0.0928705794912669</v>
+        <v>0.01231668648885062</v>
       </c>
       <c r="J25">
-        <v>0.0928705794912669</v>
+        <v>0.01231668648885061</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.615977666666667</v>
+        <v>0.9146693333333333</v>
       </c>
       <c r="N25">
-        <v>4.847932999999999</v>
+        <v>2.744008</v>
       </c>
       <c r="O25">
-        <v>0.02742690069860585</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="P25">
-        <v>0.02742690069860584</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="Q25">
-        <v>3.998050484317555</v>
+        <v>0.4045838568746667</v>
       </c>
       <c r="R25">
-        <v>35.982454358858</v>
+        <v>3.641254711872</v>
       </c>
       <c r="S25">
-        <v>0.002547152161528959</v>
+        <v>0.0002451759736058948</v>
       </c>
       <c r="T25">
-        <v>0.002547152161528958</v>
+        <v>0.0002451759736058948</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.224885</v>
+        <v>11.94113466666666</v>
       </c>
       <c r="H26">
-        <v>24.674655</v>
+        <v>35.823404</v>
       </c>
       <c r="I26">
-        <v>0.3087415431161873</v>
+        <v>0.3325026044258537</v>
       </c>
       <c r="J26">
-        <v>0.3087415431161873</v>
+        <v>0.3325026044258537</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.789758</v>
+        <v>39.62362533333334</v>
       </c>
       <c r="N26">
-        <v>92.369274</v>
+        <v>118.870876</v>
       </c>
       <c r="O26">
-        <v>0.5225738279799486</v>
+        <v>0.862331223864382</v>
       </c>
       <c r="P26">
-        <v>0.5225738279799483</v>
+        <v>0.8623312238643819</v>
       </c>
       <c r="Q26">
-        <v>253.24221872783</v>
+        <v>473.1510460868782</v>
       </c>
       <c r="R26">
-        <v>2279.17996855047</v>
+        <v>4258.359414781904</v>
       </c>
       <c r="S26">
-        <v>0.1613402500426623</v>
+        <v>0.2867273778126409</v>
       </c>
       <c r="T26">
-        <v>0.1613402500426623</v>
+        <v>0.2867273778126408</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.224885</v>
+        <v>11.94113466666666</v>
       </c>
       <c r="H27">
-        <v>24.674655</v>
+        <v>35.823404</v>
       </c>
       <c r="I27">
-        <v>0.3087415431161873</v>
+        <v>0.3325026044258537</v>
       </c>
       <c r="J27">
-        <v>0.3087415431161873</v>
+        <v>0.3325026044258537</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>6.742361000000001</v>
       </c>
       <c r="O27">
-        <v>0.03814451759567488</v>
+        <v>0.04891146266025228</v>
       </c>
       <c r="P27">
-        <v>0.03814451759567487</v>
+        <v>0.04891146266025227</v>
       </c>
       <c r="Q27">
-        <v>18.48504795116167</v>
+        <v>26.83714689076044</v>
       </c>
       <c r="R27">
-        <v>166.365431560455</v>
+        <v>241.534322016844</v>
       </c>
       <c r="S27">
-        <v>0.01177679722391122</v>
+        <v>0.01626318872081178</v>
       </c>
       <c r="T27">
-        <v>0.01177679722391122</v>
+        <v>0.01626318872081177</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.224885</v>
+        <v>11.94113466666666</v>
       </c>
       <c r="H28">
-        <v>24.674655</v>
+        <v>35.823404</v>
       </c>
       <c r="I28">
-        <v>0.3087415431161873</v>
+        <v>0.3325026044258537</v>
       </c>
       <c r="J28">
-        <v>0.3087415431161873</v>
+        <v>0.3325026044258537</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.8899283333333333</v>
+        <v>0.2964306666666667</v>
       </c>
       <c r="N28">
-        <v>2.669785</v>
+        <v>0.889292</v>
       </c>
       <c r="O28">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992269</v>
       </c>
       <c r="P28">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992268</v>
       </c>
       <c r="Q28">
-        <v>7.319558199908333</v>
+        <v>3.539718509996444</v>
       </c>
       <c r="R28">
-        <v>65.876023799175</v>
+        <v>31.85746658996799</v>
       </c>
       <c r="S28">
-        <v>0.004663279906910919</v>
+        <v>0.00214505328680979</v>
       </c>
       <c r="T28">
-        <v>0.004663279906910918</v>
+        <v>0.00214505328680979</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.224885</v>
+        <v>11.94113466666666</v>
       </c>
       <c r="H29">
-        <v>24.674655</v>
+        <v>35.823404</v>
       </c>
       <c r="I29">
-        <v>0.3087415431161873</v>
+        <v>0.3325026044258537</v>
       </c>
       <c r="J29">
-        <v>0.3087415431161873</v>
+        <v>0.3325026044258537</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.079867</v>
+        <v>2.447182</v>
       </c>
       <c r="N29">
-        <v>69.23960099999999</v>
+        <v>7.341546</v>
       </c>
       <c r="O29">
-        <v>0.391719040060597</v>
+        <v>0.05325816179933475</v>
       </c>
       <c r="P29">
-        <v>0.3917190400605969</v>
+        <v>0.05325816179933474</v>
       </c>
       <c r="Q29">
-        <v>189.829251890295</v>
+        <v>29.22212981584266</v>
       </c>
       <c r="R29">
-        <v>1708.463267012655</v>
+        <v>262.999168342584</v>
       </c>
       <c r="S29">
-        <v>0.1209399408963003</v>
+        <v>0.01770847750521232</v>
       </c>
       <c r="T29">
-        <v>0.1209399408963003</v>
+        <v>0.01770847750521231</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.224885</v>
+        <v>11.94113466666666</v>
       </c>
       <c r="H30">
-        <v>24.674655</v>
+        <v>35.823404</v>
       </c>
       <c r="I30">
-        <v>0.3087415431161873</v>
+        <v>0.3325026044258537</v>
       </c>
       <c r="J30">
-        <v>0.3087415431161873</v>
+        <v>0.3325026044258537</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.2964566666666666</v>
+        <v>0.4200656666666667</v>
       </c>
       <c r="N30">
-        <v>0.88937</v>
+        <v>1.260197</v>
       </c>
       <c r="O30">
-        <v>0.005031559362375489</v>
+        <v>0.009141913123616776</v>
       </c>
       <c r="P30">
-        <v>0.005031559362375487</v>
+        <v>0.009141913123616775</v>
       </c>
       <c r="Q30">
-        <v>2.438321990816667</v>
+        <v>5.016060694509777</v>
       </c>
       <c r="R30">
-        <v>21.94489791735</v>
+        <v>45.14454625058799</v>
       </c>
       <c r="S30">
-        <v>0.001553451401820508</v>
+        <v>0.00303970992303747</v>
       </c>
       <c r="T30">
-        <v>0.001553451401820507</v>
+        <v>0.003039709923037469</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.224885</v>
+        <v>11.94113466666666</v>
       </c>
       <c r="H31">
-        <v>24.674655</v>
+        <v>35.823404</v>
       </c>
       <c r="I31">
-        <v>0.3087415431161873</v>
+        <v>0.3325026044258537</v>
       </c>
       <c r="J31">
-        <v>0.3087415431161873</v>
+        <v>0.3325026044258537</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.615977666666667</v>
+        <v>0.9146693333333333</v>
       </c>
       <c r="N31">
-        <v>4.847932999999999</v>
+        <v>2.744008</v>
       </c>
       <c r="O31">
-        <v>0.02742690069860585</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="P31">
-        <v>0.02742690069860584</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="Q31">
-        <v>13.29123047090167</v>
+        <v>10.92218968480355</v>
       </c>
       <c r="R31">
-        <v>119.621074238115</v>
+        <v>98.29970716323199</v>
       </c>
       <c r="S31">
-        <v>0.008467823644582007</v>
+        <v>0.00661879717734148</v>
       </c>
       <c r="T31">
-        <v>0.008467823644582003</v>
+        <v>0.006618797177341477</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.598019666666667</v>
+        <v>1.969077666666667</v>
       </c>
       <c r="H32">
-        <v>4.794059</v>
+        <v>5.907233</v>
       </c>
       <c r="I32">
-        <v>0.0599856481661059</v>
+        <v>0.05482924954452539</v>
       </c>
       <c r="J32">
-        <v>0.0599856481661059</v>
+        <v>0.05482924954452539</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>30.789758</v>
+        <v>39.62362533333334</v>
       </c>
       <c r="N32">
-        <v>92.369274</v>
+        <v>118.870876</v>
       </c>
       <c r="O32">
-        <v>0.5225738279799486</v>
+        <v>0.862331223864382</v>
       </c>
       <c r="P32">
-        <v>0.5225738279799483</v>
+        <v>0.8623312238643819</v>
       </c>
       <c r="Q32">
-        <v>49.20263881590733</v>
+        <v>78.02199571623422</v>
       </c>
       <c r="R32">
-        <v>442.823749343166</v>
+        <v>702.197961446108</v>
       </c>
       <c r="S32">
-        <v>0.03134692978602034</v>
+        <v>0.04728097386329619</v>
       </c>
       <c r="T32">
-        <v>0.03134692978602033</v>
+        <v>0.04728097386329619</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.598019666666667</v>
+        <v>1.969077666666667</v>
       </c>
       <c r="H33">
-        <v>4.794059</v>
+        <v>5.907233</v>
       </c>
       <c r="I33">
-        <v>0.0599856481661059</v>
+        <v>0.05482924954452539</v>
       </c>
       <c r="J33">
-        <v>0.0599856481661059</v>
+        <v>0.05482924954452539</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>6.742361000000001</v>
       </c>
       <c r="O33">
-        <v>0.03814451759567488</v>
+        <v>0.04891146266025228</v>
       </c>
       <c r="P33">
-        <v>0.03814451759567487</v>
+        <v>0.04891146266025227</v>
       </c>
       <c r="Q33">
-        <v>3.591475159255445</v>
+        <v>4.425410821901445</v>
       </c>
       <c r="R33">
-        <v>32.323276433299</v>
+        <v>39.828697397113</v>
       </c>
       <c r="S33">
-        <v>0.002288123611959989</v>
+        <v>0.002681778791786708</v>
       </c>
       <c r="T33">
-        <v>0.002288123611959988</v>
+        <v>0.002681778791786707</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.598019666666667</v>
+        <v>1.969077666666667</v>
       </c>
       <c r="H34">
-        <v>4.794059</v>
+        <v>5.907233</v>
       </c>
       <c r="I34">
-        <v>0.0599856481661059</v>
+        <v>0.05482924954452539</v>
       </c>
       <c r="J34">
-        <v>0.0599856481661059</v>
+        <v>0.05482924954452539</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.8899283333333333</v>
+        <v>0.2964306666666667</v>
       </c>
       <c r="N34">
-        <v>2.669785</v>
+        <v>0.889292</v>
       </c>
       <c r="O34">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992269</v>
       </c>
       <c r="P34">
-        <v>0.01510415430279821</v>
+        <v>0.006451237548992268</v>
       </c>
       <c r="Q34">
-        <v>1.422122978590556</v>
+        <v>0.5836950054484444</v>
       </c>
       <c r="R34">
-        <v>12.799106807315</v>
+        <v>5.253255049035999</v>
       </c>
       <c r="S34">
-        <v>0.0009060324858542279</v>
+        <v>0.0003537165134447095</v>
       </c>
       <c r="T34">
-        <v>0.0009060324858542277</v>
+        <v>0.0003537165134447094</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.598019666666667</v>
+        <v>1.969077666666667</v>
       </c>
       <c r="H35">
-        <v>4.794059</v>
+        <v>5.907233</v>
       </c>
       <c r="I35">
-        <v>0.0599856481661059</v>
+        <v>0.05482924954452539</v>
       </c>
       <c r="J35">
-        <v>0.0599856481661059</v>
+        <v>0.05482924954452539</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.079867</v>
+        <v>2.447182</v>
       </c>
       <c r="N35">
-        <v>69.23960099999999</v>
+        <v>7.341546</v>
       </c>
       <c r="O35">
-        <v>0.391719040060597</v>
+        <v>0.05325816179933475</v>
       </c>
       <c r="P35">
-        <v>0.3917190400605969</v>
+        <v>0.05325816179933474</v>
       </c>
       <c r="Q35">
-        <v>36.88208137005099</v>
+        <v>4.818691422468667</v>
       </c>
       <c r="R35">
-        <v>331.9387323304589</v>
+        <v>43.368222802218</v>
       </c>
       <c r="S35">
-        <v>0.02349752051703971</v>
+        <v>0.002920105043578434</v>
       </c>
       <c r="T35">
-        <v>0.02349752051703971</v>
+        <v>0.002920105043578434</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.598019666666667</v>
+        <v>1.969077666666667</v>
       </c>
       <c r="H36">
-        <v>4.794059</v>
+        <v>5.907233</v>
       </c>
       <c r="I36">
-        <v>0.0599856481661059</v>
+        <v>0.05482924954452539</v>
       </c>
       <c r="J36">
-        <v>0.0599856481661059</v>
+        <v>0.05482924954452539</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.2964566666666666</v>
+        <v>0.4200656666666667</v>
       </c>
       <c r="N36">
-        <v>0.88937</v>
+        <v>1.260197</v>
       </c>
       <c r="O36">
-        <v>0.005031559362375489</v>
+        <v>0.009141913123616776</v>
       </c>
       <c r="P36">
-        <v>0.005031559362375487</v>
+        <v>0.009141913123616775</v>
       </c>
       <c r="Q36">
-        <v>0.4737435836477777</v>
+        <v>0.8271419227667777</v>
       </c>
       <c r="R36">
-        <v>4.263692252829999</v>
+        <v>7.444277304901</v>
       </c>
       <c r="S36">
-        <v>0.0003018213496383322</v>
+        <v>0.0005012442359691559</v>
       </c>
       <c r="T36">
-        <v>0.0003018213496383321</v>
+        <v>0.0005012442359691558</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.598019666666667</v>
+        <v>1.969077666666667</v>
       </c>
       <c r="H37">
-        <v>4.794059</v>
+        <v>5.907233</v>
       </c>
       <c r="I37">
-        <v>0.0599856481661059</v>
+        <v>0.05482924954452539</v>
       </c>
       <c r="J37">
-        <v>0.0599856481661059</v>
+        <v>0.05482924954452539</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.615977666666667</v>
+        <v>0.9146693333333333</v>
       </c>
       <c r="N37">
-        <v>4.847932999999999</v>
+        <v>2.744008</v>
       </c>
       <c r="O37">
-        <v>0.02742690069860585</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="P37">
-        <v>0.02742690069860584</v>
+        <v>0.01990600100342202</v>
       </c>
       <c r="Q37">
-        <v>2.582364092227444</v>
+        <v>1.801054956651555</v>
       </c>
       <c r="R37">
-        <v>23.241276830047</v>
+        <v>16.209494609864</v>
       </c>
       <c r="S37">
-        <v>0.001645220415593295</v>
+        <v>0.001091431096450199</v>
       </c>
       <c r="T37">
-        <v>0.001645220415593294</v>
+        <v>0.001091431096450199</v>
       </c>
     </row>
   </sheetData>
